--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/23.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/23.xlsx
@@ -479,13 +479,13 @@
         <v>-11.05755727016365</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.47415920248815</v>
+        <v>-10.45160116469185</v>
       </c>
       <c r="F2" t="n">
-        <v>2.793789974162517</v>
+        <v>2.739797317243239</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.82815171118929</v>
+        <v>-15.69385086863886</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-10.44033589692105</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.97437681716198</v>
+        <v>-10.95036553375025</v>
       </c>
       <c r="F3" t="n">
-        <v>2.661112577164465</v>
+        <v>2.612540133621661</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.39686507097715</v>
+        <v>-15.27857611480215</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.645466972732695</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.25004834579736</v>
+        <v>-11.24791430043416</v>
       </c>
       <c r="F4" t="n">
-        <v>2.789574252647481</v>
+        <v>2.748542975541512</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.86928454336411</v>
+        <v>-14.76277865974667</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.780892559112376</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.78107214905777</v>
+        <v>-11.78260394849025</v>
       </c>
       <c r="F5" t="n">
-        <v>2.83332872874453</v>
+        <v>2.805363569874603</v>
       </c>
       <c r="G5" t="n">
-        <v>-14.24539703604734</v>
+        <v>-14.15111936328407</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.866936983076784</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.51612639980364</v>
+        <v>-12.50895181784637</v>
       </c>
       <c r="F6" t="n">
-        <v>2.864148009633953</v>
+        <v>2.832098052277408</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.75967260061931</v>
+        <v>-13.66915241877161</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.965152115918073</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.8095510910924</v>
+        <v>-12.82554988516499</v>
       </c>
       <c r="F7" t="n">
-        <v>3.089990233653728</v>
+        <v>3.055819323236823</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.10547641222394</v>
+        <v>-13.00817441750423</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.106534838756079</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.60877071806557</v>
+        <v>-13.62086800589132</v>
       </c>
       <c r="F8" t="n">
-        <v>3.223086584342715</v>
+        <v>3.187946843515522</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.81484038144046</v>
+        <v>-12.70946043586741</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.326814321029074</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.23557780891605</v>
+        <v>-14.2462611280349</v>
       </c>
       <c r="F9" t="n">
-        <v>3.391165568224794</v>
+        <v>3.351181675346163</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.2092820981021</v>
+        <v>-12.09344140255851</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.646057828060519</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.21691136841762</v>
+        <v>-15.23194133207993</v>
       </c>
       <c r="F10" t="n">
-        <v>3.570399194128024</v>
+        <v>3.536961452670256</v>
       </c>
       <c r="G10" t="n">
-        <v>-11.87804683620644</v>
+        <v>-11.76114566413266</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.071556076230933</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.08559875426899</v>
+        <v>-16.09756511906633</v>
       </c>
       <c r="F11" t="n">
-        <v>3.743898391386578</v>
+        <v>3.707894558571831</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.39728438355541</v>
+        <v>-11.2884349777293</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.610153316201258</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.87596798452115</v>
+        <v>-16.90457466623032</v>
       </c>
       <c r="F12" t="n">
-        <v>3.784327422561828</v>
+        <v>3.750784942681326</v>
       </c>
       <c r="G12" t="n">
-        <v>-11.1550505963778</v>
+        <v>-11.0441980682169</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.244153722629965</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.49654313921897</v>
+        <v>-17.52359183688997</v>
       </c>
       <c r="F13" t="n">
-        <v>3.653404394144567</v>
+        <v>3.618343207134425</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.58465823847232</v>
+        <v>-10.47219535706189</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.968727466439661</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.44726689467659</v>
+        <v>-18.48396461954195</v>
       </c>
       <c r="F14" t="n">
-        <v>3.909332730094628</v>
+        <v>3.864583238981609</v>
       </c>
       <c r="G14" t="n">
-        <v>-10.02374470782425</v>
+        <v>-9.904630936570223</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.755026192212378</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.27844483288641</v>
+        <v>-19.31910952551281</v>
       </c>
       <c r="F15" t="n">
-        <v>3.950887699314267</v>
+        <v>3.907342700062686</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.540651825267396</v>
+        <v>-9.423279330291322</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.588006919713479</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.28299104532637</v>
+        <v>-20.31515883340849</v>
       </c>
       <c r="F16" t="n">
-        <v>4.171728663648502</v>
+        <v>4.118416806476993</v>
       </c>
       <c r="G16" t="n">
-        <v>-9.015008958474937</v>
+        <v>-8.89792449416138</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.440252351145841</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.25210948627662</v>
+        <v>-21.27694558476737</v>
       </c>
       <c r="F17" t="n">
-        <v>4.357639364001012</v>
+        <v>4.314434764623316</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.659251813356713</v>
+        <v>-8.535005859388733</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.295507762629668</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.02746184516932</v>
+        <v>-22.04664206883244</v>
       </c>
       <c r="F18" t="n">
-        <v>4.622313358249347</v>
+        <v>4.577302021079492</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.158327214329432</v>
+        <v>-8.044267071972316</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.137768919355658</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.73110766139789</v>
+        <v>-22.76365512626241</v>
       </c>
       <c r="F19" t="n">
-        <v>4.819483439045741</v>
+        <v>4.775912255188477</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.619225460215678</v>
+        <v>-7.497165920822266</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.958767140063167</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.44322419756505</v>
+        <v>-23.46460392810559</v>
       </c>
       <c r="F20" t="n">
-        <v>4.916759249159766</v>
+        <v>4.880231724231351</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.923827794777398</v>
+        <v>-6.796766995698446</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.755217877887184</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.13022969688178</v>
+        <v>-24.14266738458142</v>
       </c>
       <c r="F21" t="n">
-        <v>4.963865354784296</v>
+        <v>4.933674504431276</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.77487666534708</v>
+        <v>-6.65207086469169</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.526133576162193</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.84789736945384</v>
+        <v>-24.86638370106635</v>
       </c>
       <c r="F22" t="n">
-        <v>5.281301329484787</v>
+        <v>5.253571832066011</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.622796475537591</v>
+        <v>-6.505489442075725</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.276396958493599</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.38053152596378</v>
+        <v>-25.38812506161198</v>
       </c>
       <c r="F23" t="n">
-        <v>5.276142962165147</v>
+        <v>5.246292511686011</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.298316841908251</v>
+        <v>-6.189886389773076</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.009787425828425</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.81989611702927</v>
+        <v>-25.83063180535948</v>
       </c>
       <c r="F24" t="n">
-        <v>5.189445732747236</v>
+        <v>5.17187586233364</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.997783030176429</v>
+        <v>-5.896435513878628</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.7352365135458986</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.16173614422673</v>
+        <v>-26.16157903659263</v>
       </c>
       <c r="F25" t="n">
-        <v>5.294917324440181</v>
+        <v>5.27996591459493</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.718301641414103</v>
+        <v>-5.628737197673855</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.4583307324600766</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.48918773060115</v>
+        <v>-26.47435415148147</v>
       </c>
       <c r="F26" t="n">
-        <v>5.288344988413635</v>
+        <v>5.278421022859606</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.473541039788034</v>
+        <v>-5.390784593525484</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.1864953892908117</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.25085544967036</v>
+        <v>-26.24474134424328</v>
       </c>
       <c r="F27" t="n">
-        <v>5.400624577584278</v>
+        <v>5.391695627046221</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.039138431499564</v>
+        <v>-4.963608936405646</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.07500116821529733</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.41801797235352</v>
+        <v>-26.40432342358108</v>
       </c>
       <c r="F28" t="n">
-        <v>5.205104126945941</v>
+        <v>5.193687638867956</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.852965885090219</v>
+        <v>-4.787700755424215</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.3196614786041266</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.54547154051772</v>
+        <v>-26.53756378960132</v>
       </c>
       <c r="F29" t="n">
-        <v>5.245061835218888</v>
+        <v>5.231655317108961</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.81679185233853</v>
+        <v>-4.752115876300403</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.5418676801718759</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.60091744305243</v>
+        <v>-26.57660503667535</v>
       </c>
       <c r="F30" t="n">
-        <v>5.229403441020184</v>
+        <v>5.215970738304573</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.81543025284299</v>
+        <v>-4.755454413525043</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7353249455296561</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.24013285364299</v>
+        <v>-26.21507418600392</v>
       </c>
       <c r="F31" t="n">
-        <v>5.101386903833787</v>
+        <v>5.08146041890868</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.022485022284888</v>
+        <v>-4.959196830347985</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8952355596747215</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.92462144746023</v>
+        <v>-25.88911512215347</v>
       </c>
       <c r="F32" t="n">
-        <v>5.133698707247166</v>
+        <v>5.102931795569111</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.111669789242726</v>
+        <v>-5.047321120775642</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.018590597506884</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.75872887815272</v>
+        <v>-25.71720009353877</v>
       </c>
       <c r="F33" t="n">
-        <v>5.033725882747746</v>
+        <v>5.003168447915158</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.16570172307053</v>
+        <v>-5.102950315550136</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.10177693394069</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.26407549218663</v>
+        <v>-25.22437962997051</v>
       </c>
       <c r="F34" t="n">
-        <v>5.08070106534386</v>
+        <v>5.05210747593753</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.391897439267031</v>
+        <v>-5.324472079632142</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.143393919101598</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.92803535514804</v>
+        <v>-24.89691495129326</v>
       </c>
       <c r="F35" t="n">
-        <v>4.919403894333795</v>
+        <v>4.893481134707177</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.502160813800048</v>
+        <v>-5.430559009558648</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.140269412678106</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.41261757687497</v>
+        <v>-24.38372286450328</v>
       </c>
       <c r="F36" t="n">
-        <v>5.084131248688392</v>
+        <v>5.039800711266308</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.531697049010982</v>
+        <v>-5.467675688114942</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.09171027654358</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.86318599581909</v>
+        <v>-23.82596457884007</v>
       </c>
       <c r="F37" t="n">
-        <v>5.050379291962423</v>
+        <v>5.009740783941704</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.610119943032921</v>
+        <v>-5.55807803923706</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.995398696762351</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.26427860232434</v>
+        <v>-23.22988512275912</v>
       </c>
       <c r="F38" t="n">
-        <v>4.866589544670272</v>
+        <v>4.826998420876892</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.645128760831697</v>
+        <v>-5.584655414005764</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8535380503944457</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.16651837700517</v>
+        <v>-23.1236672698042</v>
       </c>
       <c r="F39" t="n">
-        <v>5.013066228863503</v>
+        <v>4.974443935480411</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.649514682283675</v>
+        <v>-5.582115507254469</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6680377146680766</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.45056579610538</v>
+        <v>-22.40712553527653</v>
       </c>
       <c r="F40" t="n">
-        <v>5.178369644543136</v>
+        <v>5.139825904977095</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.699776032893061</v>
+        <v>-5.633908657296337</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4437277117254513</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.93366858761119</v>
+        <v>-21.89901326198914</v>
       </c>
       <c r="F41" t="n">
-        <v>5.148885778543569</v>
+        <v>5.113850776139111</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.764596024262447</v>
+        <v>-5.702394493461406</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.1853031253010181</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.10992707741547</v>
+        <v>-21.08067887286705</v>
       </c>
       <c r="F42" t="n">
-        <v>5.278132992197089</v>
+        <v>5.235687746384213</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.990529894402114</v>
+        <v>-5.926128856723663</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.1020974295348017</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.61912282848484</v>
+        <v>-20.58656227131747</v>
       </c>
       <c r="F43" t="n">
-        <v>5.272005794467161</v>
+        <v>5.238018176290041</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.090816934169736</v>
+        <v>-6.033289355483191</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.412125873007844</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.96825208501127</v>
+        <v>-19.93591409699221</v>
       </c>
       <c r="F44" t="n">
-        <v>5.142261073305656</v>
+        <v>5.108797147242204</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.106619343699698</v>
+        <v>-6.047167196495421</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.7397640820829171</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.44139163405453</v>
+        <v>-19.40752184660299</v>
       </c>
       <c r="F45" t="n">
-        <v>5.066718485908896</v>
+        <v>5.039093726912855</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.085907320604088</v>
+        <v>-6.03221578665017</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.077956593075299</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.7768525264142</v>
+        <v>-18.74553573801679</v>
       </c>
       <c r="F46" t="n">
-        <v>5.286878650495362</v>
+        <v>5.25113666373745</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.292438397932317</v>
+        <v>-6.222748069905808</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.423037401871344</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.41665709063263</v>
+        <v>-18.38289204160382</v>
       </c>
       <c r="F47" t="n">
-        <v>5.31068045706162</v>
+        <v>5.267894811374859</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.524407819682019</v>
+        <v>-6.446469340865224</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.767179689932891</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.78827892344115</v>
+        <v>-17.76663734684378</v>
       </c>
       <c r="F48" t="n">
-        <v>5.21586599988184</v>
+        <v>5.169702540061913</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.67292690311856</v>
+        <v>-6.592697271304463</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.107904411521454</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.29735684378495</v>
+        <v>-17.27053071526225</v>
       </c>
       <c r="F49" t="n">
-        <v>5.231550578686227</v>
+        <v>5.186486872305006</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.974625929803295</v>
+        <v>-6.893217990733443</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.437385822969013</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.6803166108544</v>
+        <v>-16.66616383148249</v>
       </c>
       <c r="F50" t="n">
-        <v>5.099449243013211</v>
+        <v>5.053835659912638</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.171233041577495</v>
+        <v>-7.083946658531708</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.753190295766959</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.90920615808242</v>
+        <v>-15.90002845379037</v>
       </c>
       <c r="F51" t="n">
-        <v>5.029117392147459</v>
+        <v>4.991254452329187</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.235306771684903</v>
+        <v>-7.134260378352462</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.049918415925011</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.42655841382218</v>
+        <v>-15.41995989318995</v>
       </c>
       <c r="F52" t="n">
-        <v>4.939723148344154</v>
+        <v>4.898325286758616</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.469920838608634</v>
+        <v>-7.373077074488386</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.325065832151963</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.84385929124548</v>
+        <v>-14.83719530909904</v>
       </c>
       <c r="F53" t="n">
-        <v>4.884866399437321</v>
+        <v>4.852502226812574</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.724644682697257</v>
+        <v>-7.622891305011361</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.576569746171166</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.13433503104098</v>
+        <v>-14.13658690712976</v>
       </c>
       <c r="F54" t="n">
-        <v>4.727863503759342</v>
+        <v>4.690367148420639</v>
       </c>
       <c r="G54" t="n">
-        <v>-8.000591149692317</v>
+        <v>-7.89244872821966</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.802708478291192</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.58914535610582</v>
+        <v>-13.59578315364658</v>
       </c>
       <c r="F55" t="n">
-        <v>4.799871169388836</v>
+        <v>4.760594260863657</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.309490942940002</v>
+        <v>-8.199214476104142</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.006017343737367</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.27911962481375</v>
+        <v>-13.28040267049224</v>
       </c>
       <c r="F56" t="n">
-        <v>4.698274899337041</v>
+        <v>4.65905036002323</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.344853252915504</v>
+        <v>-8.231473910306157</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.184674957301374</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.96129088102801</v>
+        <v>-12.96791558626592</v>
       </c>
       <c r="F57" t="n">
-        <v>4.619668713075318</v>
+        <v>4.57099153110978</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.677594129637972</v>
+        <v>-8.560195450056215</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.345043137798739</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.4899156095145</v>
+        <v>-12.50756403374515</v>
       </c>
       <c r="F58" t="n">
-        <v>4.522052503087409</v>
+        <v>4.477774334876691</v>
       </c>
       <c r="G58" t="n">
-        <v>-9.100658803665509</v>
+        <v>-8.986912876576591</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.484152431631077</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.17551704907329</v>
+        <v>-12.19021970516455</v>
       </c>
       <c r="F59" t="n">
-        <v>4.503068663966905</v>
+        <v>4.45850246509367</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.449503212883299</v>
+        <v>-9.331227349011145</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.61017778401707</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.84911284692622</v>
+        <v>-11.85671947487726</v>
       </c>
       <c r="F60" t="n">
-        <v>4.407521037827989</v>
+        <v>4.360388747597775</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.526276476747181</v>
+        <v>-9.423541176348156</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.719628893458165</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.695108088599</v>
+        <v>-11.70356571623475</v>
       </c>
       <c r="F61" t="n">
-        <v>4.275498255972023</v>
+        <v>4.232215102777277</v>
       </c>
       <c r="G61" t="n">
-        <v>-9.916662762881769</v>
+        <v>-9.809057125825623</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.819479743599334</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.62757799054137</v>
+        <v>-11.62612474492594</v>
       </c>
       <c r="F62" t="n">
-        <v>4.168089003458502</v>
+        <v>4.126062711336562</v>
       </c>
       <c r="G62" t="n">
-        <v>-10.11518135087086</v>
+        <v>-10.00600463747371</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.908109572973382</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.39161541642494</v>
+        <v>-11.38424444992505</v>
       </c>
       <c r="F63" t="n">
-        <v>4.253136602718355</v>
+        <v>4.204433236147134</v>
       </c>
       <c r="G63" t="n">
-        <v>-10.33788142220862</v>
+        <v>-10.22966044691891</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.98930486031399</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.34479734146293</v>
+        <v>-11.33086713123934</v>
       </c>
       <c r="F64" t="n">
-        <v>4.14410390465246</v>
+        <v>4.099406782750807</v>
       </c>
       <c r="G64" t="n">
-        <v>-10.54889006710872</v>
+        <v>-10.4307189416593</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.064098399083844</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.41730251460041</v>
+        <v>-11.39752004500656</v>
       </c>
       <c r="F65" t="n">
-        <v>4.149890702508503</v>
+        <v>4.109278379093469</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.40020078373524</v>
+        <v>-10.30258457374733</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.132348358934506</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.27231835293114</v>
+        <v>-11.25372728289589</v>
       </c>
       <c r="F66" t="n">
-        <v>4.167931895824402</v>
+        <v>4.126246003576346</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.5802592247175</v>
+        <v>-10.4823026148557</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.198895313131576</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.54288388345825</v>
+        <v>-11.52124230686087</v>
       </c>
       <c r="F67" t="n">
-        <v>3.873538374125349</v>
+        <v>3.831643005031826</v>
       </c>
       <c r="G67" t="n">
-        <v>-10.68446086303479</v>
+        <v>-10.58574489960818</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.260130498780644</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.53917876175404</v>
+        <v>-11.51965813821703</v>
       </c>
       <c r="F68" t="n">
-        <v>4.005796817432466</v>
+        <v>3.954422621081533</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.47326892589491</v>
+        <v>-10.37126679445502</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.32422677071506</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.49844860761343</v>
+        <v>-11.4718319559362</v>
       </c>
       <c r="F69" t="n">
-        <v>3.959502434584123</v>
+        <v>3.913784113060816</v>
       </c>
       <c r="G69" t="n">
-        <v>-10.55127286622591</v>
+        <v>-10.42916095762114</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.384710488065583</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.68816916809288</v>
+        <v>-11.66977448260026</v>
       </c>
       <c r="F70" t="n">
-        <v>3.723212552896651</v>
+        <v>3.680688753266725</v>
       </c>
       <c r="G70" t="n">
-        <v>-10.61077738264156</v>
+        <v>-10.49055076564599</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.451381763187811</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.65187730461562</v>
+        <v>-11.63175443514788</v>
       </c>
       <c r="F71" t="n">
-        <v>3.642721075025719</v>
+        <v>3.593520200946512</v>
       </c>
       <c r="G71" t="n">
-        <v>-10.60759595305102</v>
+        <v>-10.49065550406872</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.51661429214422</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.80576423221726</v>
+        <v>-11.78858713088892</v>
       </c>
       <c r="F72" t="n">
-        <v>3.671209926009315</v>
+        <v>3.625884373571259</v>
       </c>
       <c r="G72" t="n">
-        <v>-10.77004524671116</v>
+        <v>-10.64865341476267</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.587890968755626</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.20269666977272</v>
+        <v>-12.17357938825272</v>
       </c>
       <c r="F73" t="n">
-        <v>3.782625423192404</v>
+        <v>3.72897316614701</v>
       </c>
       <c r="G73" t="n">
-        <v>-10.55199294288221</v>
+        <v>-10.43854813875865</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.659805997960045</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.51213324743691</v>
+        <v>-12.48072481291961</v>
       </c>
       <c r="F74" t="n">
-        <v>3.764427122242404</v>
+        <v>3.71873498532478</v>
       </c>
       <c r="G74" t="n">
-        <v>-10.4662383592689</v>
+        <v>-10.35195564776348</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.734932017661643</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.80705046124963</v>
+        <v>-12.78872123727122</v>
       </c>
       <c r="F75" t="n">
-        <v>3.7194943388896</v>
+        <v>3.668643834652336</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.39048629502668</v>
+        <v>-10.27427901500352</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.8121128915031</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.05136592457908</v>
+        <v>-13.02697496438495</v>
       </c>
       <c r="F76" t="n">
-        <v>3.730884642361902</v>
+        <v>3.67230967944802</v>
       </c>
       <c r="G76" t="n">
-        <v>-10.33496183867492</v>
+        <v>-10.21531128300438</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.889424381499009</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.48906779318367</v>
+        <v>-13.46932460049835</v>
       </c>
       <c r="F77" t="n">
-        <v>3.737430793782765</v>
+        <v>3.685271059261328</v>
       </c>
       <c r="G77" t="n">
-        <v>-10.11148932146949</v>
+        <v>-9.993724057408169</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.969754152573079</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.23768566967357</v>
+        <v>-14.22143812184698</v>
       </c>
       <c r="F78" t="n">
-        <v>3.708444435291184</v>
+        <v>3.657567746448236</v>
       </c>
       <c r="G78" t="n">
-        <v>-9.809659371756341</v>
+        <v>-9.691737000060915</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.046725459709573</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.84527325995239</v>
+        <v>-14.82314726814987</v>
       </c>
       <c r="F79" t="n">
-        <v>3.856832595699307</v>
+        <v>3.79199951202708</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.830096456492276</v>
+        <v>-9.705614841073144</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.127344736352183</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.22601051889263</v>
+        <v>-15.20523303428281</v>
       </c>
       <c r="F80" t="n">
-        <v>3.88257206308614</v>
+        <v>3.827165437459956</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.435206418180135</v>
+        <v>-9.318684922888773</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.201922084394736</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.77830931427084</v>
+        <v>-15.76575379584562</v>
       </c>
       <c r="F81" t="n">
-        <v>3.873040866617364</v>
+        <v>3.816036980044489</v>
       </c>
       <c r="G81" t="n">
-        <v>-9.240157290444099</v>
+        <v>-9.122850256982234</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.279675677164543</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.61303526655077</v>
+        <v>-16.60398848528714</v>
       </c>
       <c r="F82" t="n">
-        <v>3.767176505839167</v>
+        <v>3.705171359580752</v>
       </c>
       <c r="G82" t="n">
-        <v>-9.002846209134972</v>
+        <v>-8.883156376555913</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.350112794592098</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.57167986522763</v>
+        <v>-17.56243669942138</v>
       </c>
       <c r="F83" t="n">
-        <v>3.864190469896357</v>
+        <v>3.802839938780028</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.813793356100447</v>
+        <v>-8.696525599547108</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.420396193198369</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.49818286042806</v>
+        <v>-18.4923567856635</v>
       </c>
       <c r="F84" t="n">
-        <v>3.795351141554561</v>
+        <v>3.735178917693988</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.513613036545353</v>
+        <v>-8.395049142010681</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.483147112538645</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.5221449579823</v>
+        <v>-19.51172348492029</v>
       </c>
       <c r="F85" t="n">
-        <v>3.946462500953764</v>
+        <v>3.890008491100241</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.314754048682376</v>
+        <v>-8.20040587566274</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.54049552272731</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.7034503510884</v>
+        <v>-20.69204695531326</v>
       </c>
       <c r="F86" t="n">
-        <v>3.938921334516929</v>
+        <v>3.879979787123478</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.169259287202273</v>
+        <v>-8.052554499671128</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.588738297319599</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.90880630451475</v>
+        <v>-21.89251947977965</v>
       </c>
       <c r="F87" t="n">
-        <v>3.901267871544125</v>
+        <v>3.843714108251898</v>
       </c>
       <c r="G87" t="n">
-        <v>-8.015699667171669</v>
+        <v>-7.898654479766638</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.623835218332865</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.32125630429153</v>
+        <v>-23.30337221860973</v>
       </c>
       <c r="F88" t="n">
-        <v>4.112080131901599</v>
+        <v>4.062172273468938</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.942147109806852</v>
+        <v>-7.823255907701137</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.643700214390041</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.81855751878553</v>
+        <v>-24.79763601884445</v>
       </c>
       <c r="F89" t="n">
-        <v>3.980790519004769</v>
+        <v>3.921299094891966</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.698695738464956</v>
+        <v>-7.593420531314636</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.636693293139148</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.45298751324377</v>
+        <v>-26.42785029178766</v>
       </c>
       <c r="F90" t="n">
-        <v>4.097495306535915</v>
+        <v>4.051619877378507</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.871199920707538</v>
+        <v>-7.758331177909017</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.601169405914592</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.13782287364266</v>
+        <v>-28.12690389307266</v>
       </c>
       <c r="F91" t="n">
-        <v>4.250073003853391</v>
+        <v>4.194823485861307</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.59018673251273</v>
+        <v>-7.483392818232771</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.52095042684417</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.10731108242635</v>
+        <v>-30.08449119857322</v>
       </c>
       <c r="F92" t="n">
-        <v>4.138788429698719</v>
+        <v>4.086262110697715</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.776162894379449</v>
+        <v>-7.662626444136</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.397003472380399</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.94893986165775</v>
+        <v>-31.92229702537484</v>
       </c>
       <c r="F93" t="n">
-        <v>4.052614892394478</v>
+        <v>4.010562415666854</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.666122088994741</v>
+        <v>-7.533732722659207</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.216590331508947</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.93730717113921</v>
+        <v>-33.90638315182706</v>
       </c>
       <c r="F94" t="n">
-        <v>4.337739063681589</v>
+        <v>4.283144160831591</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.517380436409892</v>
+        <v>-7.405545985535867</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.984826514580099</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.02165415275337</v>
+        <v>-36.00509238965859</v>
       </c>
       <c r="F95" t="n">
-        <v>4.040962742865342</v>
+        <v>3.996370359386423</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.328877460094719</v>
+        <v>-7.206582259250156</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.695851827392829</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.26762561294863</v>
+        <v>-38.2558818172996</v>
       </c>
       <c r="F96" t="n">
-        <v>3.914360174385851</v>
+        <v>3.871077021191105</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.392388221179933</v>
+        <v>-7.277175956172743</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.36117008821866</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.21284069226377</v>
+        <v>-40.21848347478855</v>
       </c>
       <c r="F97" t="n">
-        <v>3.708234958445716</v>
+        <v>3.670738603107012</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.019440882430524</v>
+        <v>-6.913209937172758</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.982290614771649</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.76738463813567</v>
+        <v>-42.77389151264801</v>
       </c>
       <c r="F98" t="n">
-        <v>3.685140136232911</v>
+        <v>3.64887445736133</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.055418530639587</v>
+        <v>-6.952486845697936</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.579891811719143</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.89508023445879</v>
+        <v>-44.90493873849861</v>
       </c>
       <c r="F99" t="n">
-        <v>3.584774542648239</v>
+        <v>3.563172242959391</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.798573733490604</v>
+        <v>-6.709074751264565</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.159207448861894</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.15648751970445</v>
+        <v>-47.17839094235865</v>
       </c>
       <c r="F100" t="n">
-        <v>3.485299225656805</v>
+        <v>3.469090954738748</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.620295845694821</v>
+        <v>-6.546559996090219</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.758255096620587</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.51684642982787</v>
+        <v>-49.5295328712815</v>
       </c>
       <c r="F101" t="n">
-        <v>3.183783491211853</v>
+        <v>3.171817126414516</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.647475466394244</v>
+        <v>-6.584344382091441</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.369737876013405</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.91475406450137</v>
+        <v>-51.92956145901536</v>
       </c>
       <c r="F102" t="n">
-        <v>2.789364775802014</v>
+        <v>2.778576718260431</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.673686256683379</v>
+        <v>-6.597750900201369</v>
       </c>
     </row>
   </sheetData>
